--- a/RPA/PPT/상장목록.xlsx
+++ b/RPA/PPT/상장목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sz/MyProjects/projects/CodingInLifeBook/RPA/PPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401AEC60-CF91-DB4A-AA30-5EC20711D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BAA9A-39B4-384C-B69C-48ADD37BB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F977ADFE-B526-A64D-831C-56BB6AAE0EEB}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>학생</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +107,58 @@
   </si>
   <si>
     <t>더이상 성실할 수 없상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위 학생은 평소 성실하고 책임감 있는 자세로 학교 생활을 하였으며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>친구들을 배려하는 따뜻한 마음을 가지고 있기에 이 상을 수여 합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +181,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,11 +219,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,144 +543,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104097E7-2A9C-5C49-B5B3-EE282B0D9C8D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
